--- a/medicine/Psychotrope/Mario_Fregoni/Mario_Fregoni.xlsx
+++ b/medicine/Psychotrope/Mario_Fregoni/Mario_Fregoni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mario Fregoni (né le 23 juin 1934 à Milan) est un agronome italien, diplômé en science agraire, professeur titulaire de la « chaire de viticulture » de l'Université catholique du Sacré-Cœur à Plaisance, en Émilie-Romagne.
-Membre de nombreuses sociétés scientifiques à travers le monde dont l'Académie d'agriculture de France[1], auteur d'une douzaine de livres, il a publié plus de 350 études sur la vigne et le vin et a créé et dirigé de nombreux journaux viti-vinicoles.
+Membre de nombreuses sociétés scientifiques à travers le monde dont l'Académie d'agriculture de France, auteur d'une douzaine de livres, il a publié plus de 350 études sur la vigne et le vin et a créé et dirigé de nombreux journaux viti-vinicoles.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dès 1969, Mario Fregoni fut à l'initiative du premier « cours international de viticulture et d’œnologie », et il en assura l'enseignement de sa date de création jusqu’en 1975. Puis il devint secrétaire  de la « Commission Viticulture », section scientifique, de 1975 à 1978 et en assura la présidence entre 1978 et 1982. Il en fut ensuite nommé vice-président, charge qu'il occupa jusqu’en 1985, année où il fut élu à la présidence de l'Organisation internationale de la vigne et du vin.
 Ce fut dans ce cadre qu'il organisa le congrès de Rome qui clôtura la première « Année internationale de la vigne et du vin »  dont il avait été le fondateur. Devenu vice-président de l'OIV en 1988, il fut ensuite nommé président honoraire de cet organisme international en 1991. Le 26 juin 2008, à Vérone, l'assemblée générale de l'OIV lui a décerné son Grand prix.
